--- a/500all/speech_level/speeches_CHRG-114hhrg98685.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98685.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412564</t>
   </si>
   <si>
-    <t>Brad R. Wenstrup</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Good morning, everyone. I want to welcome you all to the Subcommittee on Economic Opportunity's hearing today entitled, A Review of VA's Vocational Rehabilitation and Employment Program.    Today the subcommittee will conduct an oversight hearing on the Vocational Rehabilitation and Employment, VR&amp;E, program at the Department of Veterans Affairs, a program designed to help our severely wounded and disabled veterans by helping them find gainful employment and reach maximum independent living. Every day, VR&amp;E's masters level counselors work diligently with veterans in the program to help them create a rehabilitation plan and execute that plan, while also being a constant resource and source of support for the participant as they go through the rehab program.    I agree with those that have said that the VR&amp;E program should be the crown jewel of benefits provided to veterans through the Veterans Benefit Administration. This program has the opportunity to provide our most injured veterans with great rehabilitative services and support as they go down the pathway of transitioning to gainful employment and/or an independent life following their service.    This program is more than just a benefits program. It is also a vital first step for disabled veterans to become more financially independent, which is a win-win for veterans and taxpayers alike.    For several years now we have seen the participation in VR&amp;E increase, and the President's latest budget submission anticipates a 10 percent increase of veterans participating in the program in fiscal year 2016. And as VBA continues to move through the current disability claims backlog, it would seem logical that the participation numbers for VR&amp;E will only continue to rise.    However, despite the increase in caseload numbers, it is concerning that for the second year in a row, the President's budget has flatlined counselors and resources for this critical program. Caseloads for counselors have always been a concern of this subcommittee, and I am worried that our concerns seem to have fallen on deaf ears.    Our first panel would tell us that the industry standard for participant-to-counselor ratio should be around 1 to 125. However, we have heard reports that some VR&amp;E counselors have caseloads of upwards of 230 veterans. It is our duty to ensure that our VR&amp;E counselors have the resources they need as well as manageable caseload numbers so that our veterans are receiving the thorough and quality services they deserve in a timely manner.    I look forward to hearing from VA today on how they plan to tackle these ever-increasing participation numbers and caseloads while acting within the constraints of their current budget environment.    I am also concerned with the coordination between VA and the Department of Labor, and have specific concerns about VR&amp;E's creation of Veteran Employment Coordinators, who seem to provide the exact same job placement services that are supposed to be provided by Department of Labor's Disabled Veterans Outreach Program Specialists, DVOPS, and Local Veterans Employment Representatives, LVERs.    The question is, has VA created these new positions out of frustration with DOL? We have been told that many DVOPS and LVERs are failing to fulfill their mission and don't properly assist rehabilitated veterans into meaningful employment. However, I am concerned that the creation of these new positions is a clear duplication of services, which not only causes confusion to the veteran, but is also a waste of taxpayer-funded time and money. I am looking forward to hearing how well VA and DOL are working together for the good of the veteran and how the role of the Veterans Employment Coordinators under VA differs from the role of DOLs, DVOPS and LVERs.    One of the great things about VR&amp;E is that it is such an individualized program and is designed to cater to each veteran, but with that comes the difficult task of truly measuring outcomes and rehabilitation rates as well as ensuring consistency of services provided nationally by all VR&amp;E counselors.    I know over the years VA has tried unsuccessfully to track long-term outcome measures that show true success, and I look forward to learning more about VR&amp;E's progress in rolling out their new performance metrics that they have been in the process of implementing. I do want to ensure that these new performance metrics don't negatively impact the counselor's ability to provide quality services to veterans.    Finally, I want to examine VR&amp;E's IT system and the progress they are making towards the much needed upgrade to move to a paperless system. Last month, this subcommittee favorably reported my bill, H.R. 2344 as amended, which would, among many important reforms, authorize funding to update VR&amp;E's corporate IT system, called CWINRS, to improve oversight and tracking of taxpayer resources and the outcomes of VR&amp;E participants. Although VA has said that they have already allocated money to make these upgrades, we have seen in the past that this money can easily be reallocated to other priorities, and my bill would ensure that this does not happen again.    I do look forward to hearing about any progress the Department has already made in its efforts to move to a paperless and streamlined system, as well as how they are working with their VSO partners to ensure that they are also able to access the system in the future.    I am sure we can all agree that this program has the ability to greatly improve the lives of veterans but that more work still needs to be done so that we fulfill our promise to every eligible veteran. Hopefully, this hearing today will be yet another positive step forward in continuing to make these needed improvements.    With that, I recognize the Ranking Member, Mr. Takano, for his opening remarks.</t>
   </si>
   <si>
     <t>412520</t>
   </si>
   <si>
-    <t>Mark Takano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman. And thank you for calling this hearing. I will be brief. We are here today to assess the effectiveness of the Vocational Rehabilitation and Employment Program, which has seen many changes and attempts at reform over the past few years, but which will be increasingly important in the lives of American servicemembers as they transition to veteran status, not as a result of the drawdown of forces from Afghanistan. I, and I am sure others on the committee, are here to find out, are eligible veterans accessing the program; what are the measurable results; are the program's full-time employee resources adequate to handle the number of servicemembers that will result from the drawdown of active duty forces from Afghanistan; and as VBA continues to make progress in whittling down the disability claims backlog. And I am pleased to hear the chairman and the majority express concern about the flatline in the President's budget with regard to counselors. We should really find out if our counselor capacity is adequate.    What is the status of efforts to improve IT for the program and to integrate it into VBMS? What is the status of the six recommendations made by the GAO in its study of the program a year and a half ago? And finally, how well are the VA and the DOL working together to ensure that any veteran who is able and eager to work finds meaningful employment?    So I appreciate the witnesses being here this morning to help us answer these questions, and I do look forward to their testimony. Thank you, and I yield back.</t>
   </si>
   <si>
@@ -73,27 +67,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Varela</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Varela. Thank you, and good morning, Dr. Wenstrup, Ranking Member Takano, and members of the subcommittee. Thank you for inviting DAV to testify at this important hearing to review VA's Vocational Rehabilitation and Employment, VR&amp;E, services program.    As you know, DAV is a non-profit veterans service organization comprised of 1.2 million wartime wounded, injured, and ill veterans dedicated to a single purpose, and that is empowering veterans to lead high quality lives with respect and dignity.    As the Nation's largest VSO comprised entirely of wartime disabled veterans, DAV is leading the way in providing free assistance to veterans and their families in filing claims for benefits as well as representation in appeals of unfavorable decisions.    DAV's core mission is carried out through our national service program. Our chapter service officers, department service officers, transition service officers, and national service officers have never wavered in their commitment to serve our Nation's wounded, injured, and ill veterans, their families, and survivors, or any veteran, for that matter. In all, DAV has 3,815 service officers, including county veteran service officers accredited by DAV, all of whom are on the front lines providing much-needed claims services to our nation's veterans, their families, and survivors.    DAV service officers bring valuable military and personal experience while performing their daily service work. They understand the rigors of military service and challenges associated with navigating the VA healthcare and claims processing systems. DAV NSOs in particular have themselves participated and successfully completed a VR&amp;E rehabilitation plan as part of our DAV 16-month on-the-job training program. Due to our backgrounds in training, DAV NSOs not only possess a significant knowledge base, but also a passion for helping our fellow veterans navigate a sometimes complicated VA system and its myriad benefit programs.    In addition to assisting veterans and their dependents file claims for disability compensation, our NSOs regularly advise veterans on the opportunities and benefits afforded by VA's VR&amp;E program. As part of our lifelong continuing education program, DAV NSOs are trained on all VR&amp;E programs, and we regularly refer and encourage our clients to consider VR&amp;E programs when appropriate.    The VR&amp;E program assists veterans with service-connected disabilities in preparing for, finding, and keeping jobs suitable to their skill sets and within any limitations imposed on them due to wounds, injuries, or illnesses sustained as a result of their military experience. For veterans with severe service-connected disabilities that impact their ability to work, other services are available to help them lead more independent lives.    Mr. Chairman, DAV is a staunch proponent of the VR&amp;E program, because it embodies DAV's central purpose of empowering veterans to lead high quality lives with respect and dignity. We want to ensure this life-changing program is not just maintained, but also enhanced to truly give every eligible wounded, ill, and injured veteran the opportunity to maximize their utility, to lead high-quality lives with respect and dignity despite any limitations imposed upon them due to their service-connected disabilities.    We have provided several recommendations in the form of resolutions from our members that would enable these veterans to achieve more meaningful and gainful economic prosperity. In accordance with DAV Resolution No. 048, as adopted at our most recent national convention, we support legislation that would eliminate the 12-year limitation provided to veterans to apply for VA vocational rehabilitation.    We believe leaving a veteran's period of entitlement open-ended would be a better policy. Legislation to effect this change is also supported by the independent budget, IB, veterans service organizations.    In accordance with DAV Resolution No. 052, as adopted at our most recent national convention, we call on Congress to strengthen VA's VR&amp;E program to meet the demands of service-disabled veterans by providing increased staffing and funding, placement follow-up with employers for at least 6 months, childcare vouchers, and removing the cap placed on the independent living program. This legislation is also supported by the IB VSOs.    And lastly, in accordance with DAV Resolution No. 227, as adopted at our most recent national convention, DAV calls on Congress to create a new Veterans Economic Opportunity Administration and also calls for the transfer of DOL vets to the VA as a key element of this new administration.    We were pleased with the introduction of H.R. 2275, the Jobs for Veterans Act of 2015 in this Congress, and that H.R. 2275 was forwarded to the full committee by this subcommittee on June 25, 2015. DAV strongly supports this legislation.    Mr. Chairman, Ranking Member Takano, and members of the subcommittee, thank you for allowing me the opportunity to present the testimony today.    [The prepared statement of Mr. Varela appears in the Appendix ]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Varela.    Ms. Ansley, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Ansley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Ansley. Thank you, Chairman Wenstrup, Ranking Member Takano, and members the subcommittee. Paralyzed Veterans of America would like to thank you for the opportunity to testify today regarding the Department of Veterans Affairs Vocational Rehabilitation and Employment Program.    In July, our Nation will celebrate the 25th anniversary of the Americans with Disabilities Act, which provides equality of opportunity and access for Americans with disabilities. Despite all of our advances, however, veterans and all people with disabilities remain underrepresented in our Nation's workforce. Veterans with catastrophic disabilities, which comprises PVA's membership, continue to face barriers when seeking to return to the workforce. As a result, in 2007, PVA launched Operation PAVE, which stands for Paving Access for Veterans Employment. Operation PAVE is a vocational rehabilitation program that assists PVA's members, those who are service connected and those that are non-service connected, other veterans with disabilities, their families and also caregivers in obtaining and retaining employment. Today, Operation PAVE has seven regional offices around the Nation.    Operation PAVE provides one-on-one career counseling and assistance. All services, from our resume assistance, interview preparation, vocational counseling, and employer networking are provided at no cost to participants. Our program is staffed by experienced graduate-level certified vocational counselors and employment analysts. Although PAVE counselors are working with some of the most difficult to place clients, they are successful in returning them to the workforce.    Operation PAVE seeks to keep its counselor load at a maximum of 125 veterans per counselor or less. The ratio of 1 to 125 is recognized as a full workload in the field of vocational rehabilitation counseling. When any vocational rehabilitation counselor is required to work with more than 125 clients, the employment counseling process is delayed.    PAVE counselors recently reported that veterans have expressed frustration with how difficult it can be to connect with their VR&amp;E counselors, as calls and emails sometimes go unanswered. The Independent Budget coauthored by AmVets, Disabled American Veterans, PVA, and the Veterans of Foreign Wars has continually highlighted the shortage of VR&amp;E counselors. The IB projects that approximately 165,000 veterans will participate in the VR&amp;E program in fiscal year 2016. To achieve a maximum ration of 1 to 125, VR&amp;E would need an additional 382 full-time equivalent employees. This increase in staff would provide 277 new VR&amp;E counselors and 105 new employees providing support services. These additions would require an increase in appropriations of $41.8 million.    Providing VA with additional resources to decrease the counselor-to-veteran ratio is a step in the right direction. VA must also, however, reduce bureaucratic hurdles that delay veterans in moving through the VR&amp;E process. For example, Operation PAVE counselors have noted that they are able to sometimes more quickly begin providing resume assistance, interview preparation, and vocational counseling because there are fewer procedural hurdles to clear for eligibility. And we urge the VA to continue to build efficiencies into the system that would eliminate any wait times and assist counselors in managing their time and caseloads as efficiently as possible.    If current resource levels are maintained, one way to reduce the load for counselors and employment specialists is to continue to increase partnerships with organizations such as ours that provide specialty placement services. This is particularly important in the case of veterans who have unique needs related to their disabilities and life circumstances.    PVA's Operation PAVE counselors have indicated that they have developed relationships with VR&amp;E counselors. One PAVE counselor reported that she receives referrals of veterans with significant disabilities who need specific one-on-one help in returning to work. Without these referrals, she feared that it would be difficult for her overloaded VR&amp;E counterparts to dedicate the time and resources that are necessary to help someone with these types of disabilities return to work.    Without these types of partnerships, severely disabled veterans would likely receive minimal consideration or be designated as unemployable. Severely disabled veterans require the commitment and special attention that a VA counselor is trained to provide, but cannot afford to present with the caseloads. By referring these veterans to PVA's counselor, the veteran receives the specialized attention necessary, which more frequently leads to placement and suitable employment.    In some cases, there are fewer connections between our offices and VA's VR&amp;E program, but we are pleased that the VR&amp;E director has committed to us that he is interested in increasing collaboration.    Congressional funding for VA's VR&amp;E program must keep pace with veterans' need for services.    PVA thanks you for the opportunity to testify today and we would be pleased to answer any questions.    [The prepared statement of Ms. Ansley appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Ms. Ansley.    And, finally, Mr. Meglathery, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Meglathery</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meglathery. Chairman Wenstrup, Ranking Member Takano, and other distinguished members of the subcommittee, thank you for giving VetsFirst the opportunity to testify regarding the effectiveness of VA's Vocational Rehabilitation and Employment Program.    VetsFirst has represented our disabled veterans, their families, and their caretakers since 1946. We advocate for the program services and disability rights that help all generations of veterans with disabilities remain independent and fulfill their desire to reintegrate into society. Today, as part of the United Spinal Association, we are not only a VA-recognized national veterans service organization, but we are a leader in advocacy for all people with disabilities.    The opportunity to participate in the workforce is critical, not only financially, but also because returning to work is a way to adjust to the normality of life in a veteran's post-military years. Without the opportunity to work, many veterans with disabilities may become disconnected from the very society for which they sacrificed their time and their health.    VetsFirst is concerned that the VR&amp;E program still lacks the resources needed to best assist all disabled veterans in returning to employment. Additionally, we are concerned about VR&amp;E's difficulty in helping veterans overcome certain disabilities that contribute to their inability to succeed in a vocational rehabilitation program. Veterans who are living with mental health conditions have poorer VR&amp;E outcomes than those with other disabilities. Veterans with more serious disabilities may also routinely require a higher level of employment support both pre- and post-placement than is typically provided by VR&amp;E.    VetsFirst would like to take this opportunity to highlight two issues of concern. Under the current requirements, to be eligible for benefits, it must be 12 years or fewer since the vet's date of separation from active military service or when VA notified them of their qualified service-connected disability, whichever date is later.    Congress should do away with the 12-year requirement. The injury, either physical or mental, will be with the veteran for their lifetime. While a mental or emotional injury may not immediately affect the vet, it may acutely manifest itself in the individual at any time in the future.    On a personal note, being a combat-wounded veteran, it is my experience that it is often difficult to come to terms with one's emotions after the trauma of war. While prior to fighting in Iraq, I had a quick temper, I think it likely my lack of patience and temper were exacerbated by the stresses of war. It took me a long time and a lot of reflection to come to that conclusion. That is why I think it necessary to reevaluate the section of vocational rehabilitation that limits the time period to 12 years of eligibility.    I am only one veteran, and I have anecdotal experience that leads me to believe that I am not alone in having had to mature a little and begin to reflect before I was able to come to terms with the effect of war. I believe the long-term effects of PTS are strong validation of why 12-year eligibility must be extended.    There have been great efforts by VA and DoD to remove the stigma for servicemembers asking for help. However, it is only recently that that stigma has started to be chipped away at. For someone that had shown signs of PTS early in the wars in Iraq and Afghanistan, it is already too late for them to use VR&amp;E under the 12-year eligibility rule. While a servicemember asking for help now may arguably not feel stigmatized, I would likely say that they would have as recently as a decade or even 5 years ago.    I would also like to discuss the caseload and the staffing. While there has been a reduction in the caseload--well, VetsFirst believes the caseloads in the current state are still too high and VA resources are not sufficient to provide timely results. Not all injuries are created equally, and those afflicted with spinal cord injuries or traumatic brain injury are likely to require more individual time and attention.    We believe that in order to more effectively manage VR&amp;E, there are several options that should be exercised. Congress must appropriate the proper funding level to support VR&amp;E and must also support efforts to hire sufficient staff. However, the answer to reducing the counselor-to-veteran ratio is not strictly a matter of increasing the budget and staff levels.    The goal of VR&amp;E is employment. Therefore, it is important that the VR&amp;E program exercise a holistic approach to getting veterans back to work. For veterans who require more support in services, VA should consider partnering with a variety of non-profit organizations that provide intensive services needed to assist veterans living with significant disabilities, including mental health conditions, and returning to and remaining in the workforce. Additionally, VR&amp;E needs to enhance its relationship with State and local government and industry writ large. Proper funding and reduction of caseload and building partnerships with other public and private sector entities is crucial for the success of both VR&amp;E and the veteran.    VA must also track veterans' employment in the long-term. VetsFirst believes that a veteran would greatly benefit if their employment were monitored for at least a year. By establishing a longer-term relationship with a counselor periodically following up, the VA will be able to track the effectiveness of the program and hold employers accountable to their commitment to support VR&amp;E.    VetsFirst would like to express its thanks for the opportunity to testify concerning its views on VA's VR&amp;E program. We appreciate your leadership on behalf of our Nation's veterans who are living with disabilities. I will be happy to answer any questions.    [The prepared statement of Mr. Meglathery appears in the Appendix]</t>
   </si>
   <si>
@@ -193,12 +178,6 @@
     <t xml:space="preserve">    Dr. Wenstrup. Thank you.    Ms. Radewagen, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>412664</t>
-  </si>
-  <si>
-    <t>Aumua Amata Coleman Radewagen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Radewagen. Thank you, Chairman Wenstrup. I would like to thank both you and Ranking Member Takano for holding this hearing today, and I would like to welcome the panel.    My question is for Ms. Ansley and Mr. Varela. In your written statement, you mentioned that veterans rehabilitation and employment counselors' caseloads are too high and that additional staffing resources are needed to ensure eligible veterans aren't delayed in gaining services. Short of increased staff, what is something that VA can do right now to reduce the counselor-to-participant ratio, particularly in rural and outlying regions such as the United States territories in the South Pacific?</t>
   </si>
   <si>
@@ -220,9 +199,6 @@
     <t>412189</t>
   </si>
   <si>
-    <t>Jerry McNerney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McNerney. Thank you, Mr. Chairman.    It sounds like the whole purpose really is to get veterans into work and to get them into businesses. Does the VR&amp;E program give help or assistance to service-connected disabled veterans in starting their own businesses? Whoever would care to answer.</t>
   </si>
   <si>
@@ -295,9 +271,6 @@
     <t>412647</t>
   </si>
   <si>
-    <t>Kathleen M. Rice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Rice. you are now recognized for 5 minutes.</t>
   </si>
   <si>
@@ -385,9 +358,6 @@
     <t>412651</t>
   </si>
   <si>
-    <t>Ryan A. Costello</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chairman.    Greetings. I had the opportunity to review the testimony in advance, and I would like to ask a question for each of you to address. I think one of the main concerns, at least one of mine, I think maybe probably for most others, is how to improve the collaboration between VR&amp;E, VHA, and other parts of the VBA to reduce overlap and improve performance?    Can you share with me where you see the greatest opportunities are for increased collaboration, and how would you improve collaboration to enhance services provided by VR&amp;E?</t>
   </si>
   <si>
@@ -550,16 +520,10 @@
     <t xml:space="preserve">    Dr. Wenstrup. I think all Members of Congress can probably remember their first 60 days in Congress and relate to the challenges of that situation.    But if there are no further questions of panel 1, I now excuse you, and I thank you all very much for being here, and I ask the second and final panel to come to the witness table.    Our second panel, we have Mr. Jack Kammerer, the director of the Vocation Rehabilitation and Employment Service at VA. We also have Mr. Ralph Charlip, deputy assistant secretary for operations and management at DOL's Veterans Employment and Training Service. Welcome to both of you.    Mr. Kammerer, you are now recognized for 5 minutes for your testimony.</t>
   </si>
   <si>
-    <t>Kammerer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kammerer. Chairman Wenstrup, Ranking Member Takano, subcommittee members, I appreciate the opportunity to appear before you today to discuss VA's VR&amp;E program and our efforts to transform. We are engaged in initiatives to extend outreach, gain a better understanding of our current and future veteran population, increase program efficiencies, enhance supporting technology and reframe performance metrics. The VR&amp;E program assists servicemembers and veterans with service-connected disabilities and barriers to employment in preparing for, finding, and maintaining suitable employment. For veterans with service-connected disabilities so severe that they cannot immediately consider employment, independent living services help to improve the ability to live as independently as possible. We employ nearly a thousand professional vocational rehabilitation counselors and deliver services through a network of almost 400 locations.    Our service delivery supports veterans where they live and includes operations at 57 regional offices, 165 out-based offices, 71 installations for IDES, and 94 VetSuccess on Campus sites. As VBA continues to make progress, major progress on the backlog, more veterans with service-connected disabilities are potentially eligible for and in need of vocational rehabilitation services. The volume of VR&amp;E applications has increased over 30 percent from 2011 to 2014 with nearly 10 percent growth in participants in each of the past 2 years.    In 2014, VR&amp;E provided entitlement determinations to applicants in an average of 43 days, which was below the national target of 45 days.    The total number of VR&amp;E cases worked by VRCs, including applicants, exceeded 181,000 in 2014 and VR&amp;E participants increased to nearly 124,000 in 2014. We successfully assisted over 10,000 veterans in achieving their rehabilitation goals in 2014 with over 8,600 of those employment rehabilitations.    Our colleagues at Department of Labor share our resolve towards these employment outcomes. With a team of 79 VSOC counselors, VR&amp;E continues to partner with 94 schools to provide services to approximately 78,000 veterans on campus. Our counselors coordinate delivery of on-campus benefits assistance, educational, vocational, or adjustment counseling, and assist veterans in completing their education and entering the labor market in viable careers.    We are committed to the VSOC program and continue to evaluate schools for potential future participation. We also closely collaborate with Department of Defense to provide VR&amp;E services to servicemembers going through IDES, have deployed nearly 200 IDES counselors on 71 installations. We are jointly visiting select IDES sites with the Army's Warrior Transition Command to improve the VR&amp;E referral process and enhance our outreach and early intervention counseling services. Since July 2014, we have visited 12 Army installations with the Army's Warrior Transition command. We also continue to work on Chapter 36 educational and career counseling services to transitioning servicemembers and veterans, updated our Chapter 36 information and incorporated it into the Transition Assistance Program curriculums with those updates.    VR&amp;E is also preparing for the initial development of our new case management system. The goals of the new system, develop a paperless service delivery model, better support veterans on their own terms, ensure consistent service delivery and quality, and modernize the employee experience.    In collaboration with VHA, VR&amp;E has also expanded the use of VHA telehealth and CAPRI technologies to enhance direct veterans service through online counseling technology and electronic medical referrals. VR&amp;E is now implementing new performance measures that will place a greater focus on veteran outcomes. Success rate is the percentage of veterans who complete their goals and/or have obtained employment (positive outcomes), and the persistence rate is the number in the class who have successfully achieved a positive outcome plus those persisting in their rehabilitation, both measured against veterans in their class. We will use a 6-year completion model that better reflects the individual needs of veterans in VR&amp;E. These new measures of veterans VR&amp;E success are driven by positive outcomes and active participation. VR&amp;E continues to refine our business processes. We have lowered cost approval thresholds for IL construction to $15,000, and we have implemented additional self-employment reviews.    At the VR&amp;E training conference last month, we discussed both improving service delivery and accountability for case management. As caseloads continue to grow, we continue to look at ways to reduce the workload burden on our counselors.    Of the two remaining open GAO recommendations, new performance measures were implemented on 1 July, and we are awaiting development of the new VR&amp;E case management system, which will help us to track the post-outcome closures. The 20-year congressionally-mandated study of VR&amp;E cohorts, 2010, 2012, and 2014, has provided us a wealth of information to date. This year we found that approximately 90 percent of participants for all cohorts reported moderate- to high-program satisfaction.    Nearly one-quarter of our veterans in each cohort have a primary rating for PTSO; 85 percent of veterans who achieved rehabilitation from an employment plan in Cohurts I and II are currently still employed, and veterans who successfully complete the VR&amp;E program report more positive economic outcomes, higher employment rates, annual earnings, and more frequent homeownership.    Mr. Chairman, we will continue to assess and improve the delivery of VR&amp;E services, and we remain focused on transforming VR&amp;E. This concludes my statement. I would be pleased to answer your questions.    [The prepared statement of Mr. Jack Kammerer appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Kammerer.    Mr. Charlip, you are now recognized for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Charlip</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Charlip. Good morning, Mr. Chairman, Ranking Member Takano, and distinguished members of the subcommittee. My name is Ralph Charlip, and I am the deputy assistant secretary for operations and management with the Department of Labor's Veterans Employment and Training Service.    I am also honored to be a retired Air Force medical service core officer, having served 22 years on active duty before becoming a Federal civil servant.    Thank you for the opportunity to participate in today's hearing to discuss the Department's role in providing employment services to our Nation's veterans and servicemembers in coordination with the VA's vocational rehabilitation and employment program. The Department takes our role in providing employment services to veterans and transitioning servicemembers, including those in the VA's VR&amp;E program, very seriously. DOL-funded support for veterans with significant barriers to employment is delivered primarily by disabled veteran outreach program specialists DVOPS in American job centers across the country. DVOP positions are funded through the jobs for veteran State grant (JVSG) program administered by DOL VETS. JVSG-funded positions are aligned with other employment services provided at American job centers.    DOL's employment services for disabled veterans complement the services provided by VR&amp;E counselors. This requires close coordination between VR&amp;E and VETS and is managed under a memorandum of agreement (MOA) between DOL and VA. The most recent MOA is dated February 27, 2015. The MOA describes the goals of our coordination, the roles and responsibilities of each party, and establishes a working group comprised of staff members from both departments to manage the collaboration. We see ourselves as a vital member of a multiparty team--DOL, through Federal, State, and local staff, VA's VR&amp;E counselors, and the disabled veterans who benefit from our services.    VA's VR&amp;E is a comprehensive rehabilitation program that assists servicemembers and veterans with service-connected disabilities and barriers to employment in preparing for finding and maintaining suitable employment. DVOP specialists, on the other hand, provide intensive services to a wider variety of veterans who have significant barriers to employment. These barriers may include a service-connected disability, homelessness, low income, lack of a high school diploma or equivalent, or similar challenges. While VA is not required to refer VR&amp;E participants to DOL for assistance, the new MOA strongly encourages such referrals.    In practice, a veteran who is enrolled in the VR&amp;E program and is referred to DOL interacts with the DVOP at two distinct points. The first point is during or following enrollment in the VR&amp;E program when our DVOP specialist provides labor and marketing information, guidance to applicants, new enrollees, and their counselors. This includes information about the types of jobs that are available in the geographic area where the veteran desires to work, and assessment of the veterans' skills and the kinds of training and education that would be required to enter a particular industry.    The second point occurs when the veteran nears completion of the VR&amp;E program and is beginning to look for work. When the veteran is referred to DOL for employment services, a DVOP specialist works with the individual to prepare them for jobs which match their abilities, education, and training, and are in the career field and geographic area identified within VR&amp;E's individual written rehabilitation plan.    The story of Lori Mobbs provides one example of how this interagency coordination works. An Army veteran with more than 15 years of military service, she utilized the VR&amp;E program to complete her degree in geography in December 2014. Through effective collaboration between the Department of Veterans' Affairs and the Alabama Departments of Labor and Veterans' Affairs, she met with the DVOP specialist. Who provided Federal job search assistance during her initial visit an AJC in Huntsville, Alabama. Because she was eligible for intensive services and because of her strong desire to obtain employment with the National Park Service, the DVOP specialist assisted her in applying for several jobs with the National Park Service. I am very pleased to report that she accepted a position at Olympic National Park in Washington State in April 2015 and reported to work last month.    DOL and VA coordinate to give veterans seamless services to achieve their employment goals. We are proud of the DOL programs that deliver positive employment outcomes for our disabled veterans and look forward to continuing to work with our VA partners and this subcommittee. Chairman Wenstrup, Ranking Member Takano, distinguished members of the subcommittee, thank you for the opportunity to take an active part in the hearing. I welcome any questions you might have.    [The prepared statement of Mr. Ralph Charlip appears in the Appendix]</t>
@@ -1087,11 +1051,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1111,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1139,11 +1099,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1163,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1191,11 +1147,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1215,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1243,11 +1195,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1267,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1295,11 +1243,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1319,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1347,11 +1291,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1371,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>25</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1399,11 +1339,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1423,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1451,11 +1387,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1475,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1501,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1529,11 +1459,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1553,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1579,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1605,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1631,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1657,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1683,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1709,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1735,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1761,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1787,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1813,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1839,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1865,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1891,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1917,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1943,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1969,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1995,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2021,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2047,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2073,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2101,11 +1987,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2125,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" t="s">
-        <v>60</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2151,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2177,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" t="s">
-        <v>60</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2203,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2229,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" t="s">
-        <v>60</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2257,11 +2131,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2281,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2307,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2333,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2359,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2385,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2411,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2437,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
+        <v>60</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
         <v>67</v>
-      </c>
-      <c r="G54" t="s">
-        <v>68</v>
-      </c>
-      <c r="H54" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2463,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2489,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2515,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2541,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2567,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2593,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2619,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2645,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2671,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2697,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2723,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
-      </c>
-      <c r="G65" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2749,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2775,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
-      </c>
-      <c r="G67" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2801,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2827,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
-      </c>
-      <c r="G69" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2855,11 +2683,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2879,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>92</v>
-      </c>
-      <c r="G71" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2905,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
-      </c>
-      <c r="G72" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2931,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2957,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2983,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3009,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
-      </c>
-      <c r="G76" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3035,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3061,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
+        <v>84</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
         <v>92</v>
-      </c>
-      <c r="G78" t="s">
-        <v>93</v>
-      </c>
-      <c r="H78" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3087,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3113,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>92</v>
-      </c>
-      <c r="G80" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3139,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3165,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>92</v>
-      </c>
-      <c r="G82" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3191,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3217,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3243,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3269,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>92</v>
-      </c>
-      <c r="G86" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3295,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3321,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>92</v>
-      </c>
-      <c r="G88" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3347,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3373,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>92</v>
-      </c>
-      <c r="G90" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3399,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3425,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>92</v>
-      </c>
-      <c r="G92" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3451,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3477,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>92</v>
-      </c>
-      <c r="G94" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3503,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3529,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>92</v>
-      </c>
-      <c r="G96" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3555,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3581,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>92</v>
-      </c>
-      <c r="G98" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3609,11 +3379,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3633,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>122</v>
-      </c>
-      <c r="G100" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3659,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3685,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3711,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3737,13 +3497,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
-      </c>
-      <c r="G104" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3763,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3789,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>122</v>
-      </c>
-      <c r="G106" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3815,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3841,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
+        <v>113</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
         <v>122</v>
-      </c>
-      <c r="G108" t="s">
-        <v>123</v>
-      </c>
-      <c r="H108" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3869,11 +3619,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3893,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3921,11 +3667,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3945,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3973,11 +3715,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3997,13 +3737,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4025,11 +3763,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4049,13 +3785,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4077,11 +3811,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4101,13 +3833,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4127,13 +3857,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4153,13 +3881,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4179,13 +3905,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4205,13 +3929,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4231,13 +3953,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4257,13 +3977,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4283,13 +4001,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4309,13 +4025,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4335,13 +4049,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4361,13 +4073,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4389,11 +4099,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4413,13 +4121,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>67</v>
-      </c>
-      <c r="G130" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4439,13 +4145,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4465,13 +4169,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>67</v>
-      </c>
-      <c r="G132" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4491,13 +4193,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4517,13 +4217,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>67</v>
-      </c>
-      <c r="G134" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4543,13 +4241,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4569,13 +4265,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>67</v>
-      </c>
-      <c r="G136" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4595,13 +4289,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4621,13 +4313,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>67</v>
-      </c>
-      <c r="G138" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4647,13 +4337,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4673,13 +4361,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>67</v>
-      </c>
-      <c r="G140" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4699,13 +4385,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4725,13 +4409,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>67</v>
-      </c>
-      <c r="G142" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4753,11 +4435,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4777,13 +4457,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>92</v>
-      </c>
-      <c r="G144" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4803,13 +4481,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4829,13 +4505,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>92</v>
-      </c>
-      <c r="G146" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4855,13 +4529,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4881,13 +4553,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>92</v>
-      </c>
-      <c r="G148" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4907,13 +4577,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4933,13 +4601,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>92</v>
-      </c>
-      <c r="G150" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4959,13 +4625,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4985,13 +4649,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>92</v>
-      </c>
-      <c r="G152" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5013,11 +4675,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5037,13 +4697,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5065,11 +4723,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5089,13 +4745,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>181</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5117,11 +4771,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5141,13 +4793,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5169,11 +4819,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5193,13 +4841,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5221,11 +4867,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5245,13 +4889,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5273,11 +4915,9 @@
       <c r="F163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" t="s">
-        <v>12</v>
-      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5297,13 +4937,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
         <v>178</v>
-      </c>
-      <c r="H164" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5325,11 +4963,9 @@
       <c r="F165" t="s">
         <v>11</v>
       </c>
-      <c r="G165" t="s">
-        <v>12</v>
-      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5349,13 +4985,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5377,11 +5011,9 @@
       <c r="F167" t="s">
         <v>11</v>
       </c>
-      <c r="G167" t="s">
-        <v>12</v>
-      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5401,13 +5033,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5429,11 +5059,9 @@
       <c r="F169" t="s">
         <v>11</v>
       </c>
-      <c r="G169" t="s">
-        <v>12</v>
-      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5453,13 +5081,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5479,13 +5105,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5505,13 +5129,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5531,13 +5153,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5557,13 +5177,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5583,13 +5201,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5609,13 +5225,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5635,13 +5249,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5661,13 +5273,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
-      </c>
-      <c r="G178" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5689,11 +5299,9 @@
       <c r="F179" t="s">
         <v>11</v>
       </c>
-      <c r="G179" t="s">
-        <v>12</v>
-      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5713,13 +5321,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>122</v>
-      </c>
-      <c r="G180" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5739,13 +5345,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s">
-        <v>181</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5765,13 +5369,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>122</v>
-      </c>
-      <c r="G182" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5791,13 +5393,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5817,13 +5417,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>122</v>
-      </c>
-      <c r="G184" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5843,13 +5441,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s">
-        <v>181</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5869,13 +5465,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>122</v>
-      </c>
-      <c r="G186" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5895,13 +5489,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s">
-        <v>181</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5921,13 +5513,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>122</v>
-      </c>
-      <c r="G188" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5949,11 +5539,9 @@
       <c r="F189" t="s">
         <v>11</v>
       </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5973,13 +5561,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>92</v>
-      </c>
-      <c r="G190" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5999,13 +5585,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6025,13 +5609,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>92</v>
-      </c>
-      <c r="G192" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6051,13 +5633,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6077,13 +5657,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>92</v>
-      </c>
-      <c r="G194" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6103,13 +5681,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6129,13 +5705,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>92</v>
-      </c>
-      <c r="G196" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6155,13 +5729,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" t="s">
-        <v>178</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6181,13 +5753,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>92</v>
-      </c>
-      <c r="G198" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6209,11 +5779,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98685.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98685.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Wenstrup</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Good morning, everyone. I want to welcome you all to the Subcommittee on Economic Opportunity's hearing today entitled, A Review of VA's Vocational Rehabilitation and Employment Program.    Today the subcommittee will conduct an oversight hearing on the Vocational Rehabilitation and Employment, VR&amp;E, program at the Department of Veterans Affairs, a program designed to help our severely wounded and disabled veterans by helping them find gainful employment and reach maximum independent living. Every day, VR&amp;E's masters level counselors work diligently with veterans in the program to help them create a rehabilitation plan and execute that plan, while also being a constant resource and source of support for the participant as they go through the rehab program.    I agree with those that have said that the VR&amp;E program should be the crown jewel of benefits provided to veterans through the Veterans Benefit Administration. This program has the opportunity to provide our most injured veterans with great rehabilitative services and support as they go down the pathway of transitioning to gainful employment and/or an independent life following their service.    This program is more than just a benefits program. It is also a vital first step for disabled veterans to become more financially independent, which is a win-win for veterans and taxpayers alike.    For several years now we have seen the participation in VR&amp;E increase, and the President's latest budget submission anticipates a 10 percent increase of veterans participating in the program in fiscal year 2016. And as VBA continues to move through the current disability claims backlog, it would seem logical that the participation numbers for VR&amp;E will only continue to rise.    However, despite the increase in caseload numbers, it is concerning that for the second year in a row, the President's budget has flatlined counselors and resources for this critical program. Caseloads for counselors have always been a concern of this subcommittee, and I am worried that our concerns seem to have fallen on deaf ears.    Our first panel would tell us that the industry standard for participant-to-counselor ratio should be around 1 to 125. However, we have heard reports that some VR&amp;E counselors have caseloads of upwards of 230 veterans. It is our duty to ensure that our VR&amp;E counselors have the resources they need as well as manageable caseload numbers so that our veterans are receiving the thorough and quality services they deserve in a timely manner.    I look forward to hearing from VA today on how they plan to tackle these ever-increasing participation numbers and caseloads while acting within the constraints of their current budget environment.    I am also concerned with the coordination between VA and the Department of Labor, and have specific concerns about VR&amp;E's creation of Veteran Employment Coordinators, who seem to provide the exact same job placement services that are supposed to be provided by Department of Labor's Disabled Veterans Outreach Program Specialists, DVOPS, and Local Veterans Employment Representatives, LVERs.    The question is, has VA created these new positions out of frustration with DOL? We have been told that many DVOPS and LVERs are failing to fulfill their mission and don't properly assist rehabilitated veterans into meaningful employment. However, I am concerned that the creation of these new positions is a clear duplication of services, which not only causes confusion to the veteran, but is also a waste of taxpayer-funded time and money. I am looking forward to hearing how well VA and DOL are working together for the good of the veteran and how the role of the Veterans Employment Coordinators under VA differs from the role of DOLs, DVOPS and LVERs.    One of the great things about VR&amp;E is that it is such an individualized program and is designed to cater to each veteran, but with that comes the difficult task of truly measuring outcomes and rehabilitation rates as well as ensuring consistency of services provided nationally by all VR&amp;E counselors.    I know over the years VA has tried unsuccessfully to track long-term outcome measures that show true success, and I look forward to learning more about VR&amp;E's progress in rolling out their new performance metrics that they have been in the process of implementing. I do want to ensure that these new performance metrics don't negatively impact the counselor's ability to provide quality services to veterans.    Finally, I want to examine VR&amp;E's IT system and the progress they are making towards the much needed upgrade to move to a paperless system. Last month, this subcommittee favorably reported my bill, H.R. 2344 as amended, which would, among many important reforms, authorize funding to update VR&amp;E's corporate IT system, called CWINRS, to improve oversight and tracking of taxpayer resources and the outcomes of VR&amp;E participants. Although VA has said that they have already allocated money to make these upgrades, we have seen in the past that this money can easily be reallocated to other priorities, and my bill would ensure that this does not happen again.    I do look forward to hearing about any progress the Department has already made in its efforts to move to a paperless and streamlined system, as well as how they are working with their VSO partners to ensure that they are also able to access the system in the future.    I am sure we can all agree that this program has the ability to greatly improve the lives of veterans but that more work still needs to be done so that we fulfill our promise to every eligible veteran. Hopefully, this hearing today will be yet another positive step forward in continuing to make these needed improvements.    With that, I recognize the Ranking Member, Mr. Takano, for his opening remarks.</t>
   </si>
   <si>
     <t>412520</t>
   </si>
   <si>
+    <t>Takano</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Takano. Thank you, Mr. Chairman. And thank you for calling this hearing. I will be brief. We are here today to assess the effectiveness of the Vocational Rehabilitation and Employment Program, which has seen many changes and attempts at reform over the past few years, but which will be increasingly important in the lives of American servicemembers as they transition to veteran status, not as a result of the drawdown of forces from Afghanistan. I, and I am sure others on the committee, are here to find out, are eligible veterans accessing the program; what are the measurable results; are the program's full-time employee resources adequate to handle the number of servicemembers that will result from the drawdown of active duty forces from Afghanistan; and as VBA continues to make progress in whittling down the disability claims backlog. And I am pleased to hear the chairman and the majority express concern about the flatline in the President's budget with regard to counselors. We should really find out if our counselor capacity is adequate.    What is the status of efforts to improve IT for the program and to integrate it into VBMS? What is the status of the six recommendations made by the GAO in its study of the program a year and a half ago? And finally, how well are the VA and the DOL working together to ensure that any veteran who is able and eager to work finds meaningful employment?    So I appreciate the witnesses being here this morning to help us answer these questions, and I do look forward to their testimony. Thank you, and I yield back.</t>
   </si>
   <si>
@@ -67,18 +82,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Varela</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Varela. Thank you, and good morning, Dr. Wenstrup, Ranking Member Takano, and members of the subcommittee. Thank you for inviting DAV to testify at this important hearing to review VA's Vocational Rehabilitation and Employment, VR&amp;E, services program.    As you know, DAV is a non-profit veterans service organization comprised of 1.2 million wartime wounded, injured, and ill veterans dedicated to a single purpose, and that is empowering veterans to lead high quality lives with respect and dignity.    As the Nation's largest VSO comprised entirely of wartime disabled veterans, DAV is leading the way in providing free assistance to veterans and their families in filing claims for benefits as well as representation in appeals of unfavorable decisions.    DAV's core mission is carried out through our national service program. Our chapter service officers, department service officers, transition service officers, and national service officers have never wavered in their commitment to serve our Nation's wounded, injured, and ill veterans, their families, and survivors, or any veteran, for that matter. In all, DAV has 3,815 service officers, including county veteran service officers accredited by DAV, all of whom are on the front lines providing much-needed claims services to our nation's veterans, their families, and survivors.    DAV service officers bring valuable military and personal experience while performing their daily service work. They understand the rigors of military service and challenges associated with navigating the VA healthcare and claims processing systems. DAV NSOs in particular have themselves participated and successfully completed a VR&amp;E rehabilitation plan as part of our DAV 16-month on-the-job training program. Due to our backgrounds in training, DAV NSOs not only possess a significant knowledge base, but also a passion for helping our fellow veterans navigate a sometimes complicated VA system and its myriad benefit programs.    In addition to assisting veterans and their dependents file claims for disability compensation, our NSOs regularly advise veterans on the opportunities and benefits afforded by VA's VR&amp;E program. As part of our lifelong continuing education program, DAV NSOs are trained on all VR&amp;E programs, and we regularly refer and encourage our clients to consider VR&amp;E programs when appropriate.    The VR&amp;E program assists veterans with service-connected disabilities in preparing for, finding, and keeping jobs suitable to their skill sets and within any limitations imposed on them due to wounds, injuries, or illnesses sustained as a result of their military experience. For veterans with severe service-connected disabilities that impact their ability to work, other services are available to help them lead more independent lives.    Mr. Chairman, DAV is a staunch proponent of the VR&amp;E program, because it embodies DAV's central purpose of empowering veterans to lead high quality lives with respect and dignity. We want to ensure this life-changing program is not just maintained, but also enhanced to truly give every eligible wounded, ill, and injured veteran the opportunity to maximize their utility, to lead high-quality lives with respect and dignity despite any limitations imposed upon them due to their service-connected disabilities.    We have provided several recommendations in the form of resolutions from our members that would enable these veterans to achieve more meaningful and gainful economic prosperity. In accordance with DAV Resolution No. 048, as adopted at our most recent national convention, we support legislation that would eliminate the 12-year limitation provided to veterans to apply for VA vocational rehabilitation.    We believe leaving a veteran's period of entitlement open-ended would be a better policy. Legislation to effect this change is also supported by the independent budget, IB, veterans service organizations.    In accordance with DAV Resolution No. 052, as adopted at our most recent national convention, we call on Congress to strengthen VA's VR&amp;E program to meet the demands of service-disabled veterans by providing increased staffing and funding, placement follow-up with employers for at least 6 months, childcare vouchers, and removing the cap placed on the independent living program. This legislation is also supported by the IB VSOs.    And lastly, in accordance with DAV Resolution No. 227, as adopted at our most recent national convention, DAV calls on Congress to create a new Veterans Economic Opportunity Administration and also calls for the transfer of DOL vets to the VA as a key element of this new administration.    We were pleased with the introduction of H.R. 2275, the Jobs for Veterans Act of 2015 in this Congress, and that H.R. 2275 was forwarded to the full committee by this subcommittee on June 25, 2015. DAV strongly supports this legislation.    Mr. Chairman, Ranking Member Takano, and members of the subcommittee, thank you for allowing me the opportunity to present the testimony today.    [The prepared statement of Mr. Varela appears in the Appendix ]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Varela.    Ms. Ansley, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Ansley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Ansley. Thank you, Chairman Wenstrup, Ranking Member Takano, and members the subcommittee. Paralyzed Veterans of America would like to thank you for the opportunity to testify today regarding the Department of Veterans Affairs Vocational Rehabilitation and Employment Program.    In July, our Nation will celebrate the 25th anniversary of the Americans with Disabilities Act, which provides equality of opportunity and access for Americans with disabilities. Despite all of our advances, however, veterans and all people with disabilities remain underrepresented in our Nation's workforce. Veterans with catastrophic disabilities, which comprises PVA's membership, continue to face barriers when seeking to return to the workforce. As a result, in 2007, PVA launched Operation PAVE, which stands for Paving Access for Veterans Employment. Operation PAVE is a vocational rehabilitation program that assists PVA's members, those who are service connected and those that are non-service connected, other veterans with disabilities, their families and also caregivers in obtaining and retaining employment. Today, Operation PAVE has seven regional offices around the Nation.    Operation PAVE provides one-on-one career counseling and assistance. All services, from our resume assistance, interview preparation, vocational counseling, and employer networking are provided at no cost to participants. Our program is staffed by experienced graduate-level certified vocational counselors and employment analysts. Although PAVE counselors are working with some of the most difficult to place clients, they are successful in returning them to the workforce.    Operation PAVE seeks to keep its counselor load at a maximum of 125 veterans per counselor or less. The ratio of 1 to 125 is recognized as a full workload in the field of vocational rehabilitation counseling. When any vocational rehabilitation counselor is required to work with more than 125 clients, the employment counseling process is delayed.    PAVE counselors recently reported that veterans have expressed frustration with how difficult it can be to connect with their VR&amp;E counselors, as calls and emails sometimes go unanswered. The Independent Budget coauthored by AmVets, Disabled American Veterans, PVA, and the Veterans of Foreign Wars has continually highlighted the shortage of VR&amp;E counselors. The IB projects that approximately 165,000 veterans will participate in the VR&amp;E program in fiscal year 2016. To achieve a maximum ration of 1 to 125, VR&amp;E would need an additional 382 full-time equivalent employees. This increase in staff would provide 277 new VR&amp;E counselors and 105 new employees providing support services. These additions would require an increase in appropriations of $41.8 million.    Providing VA with additional resources to decrease the counselor-to-veteran ratio is a step in the right direction. VA must also, however, reduce bureaucratic hurdles that delay veterans in moving through the VR&amp;E process. For example, Operation PAVE counselors have noted that they are able to sometimes more quickly begin providing resume assistance, interview preparation, and vocational counseling because there are fewer procedural hurdles to clear for eligibility. And we urge the VA to continue to build efficiencies into the system that would eliminate any wait times and assist counselors in managing their time and caseloads as efficiently as possible.    If current resource levels are maintained, one way to reduce the load for counselors and employment specialists is to continue to increase partnerships with organizations such as ours that provide specialty placement services. This is particularly important in the case of veterans who have unique needs related to their disabilities and life circumstances.    PVA's Operation PAVE counselors have indicated that they have developed relationships with VR&amp;E counselors. One PAVE counselor reported that she receives referrals of veterans with significant disabilities who need specific one-on-one help in returning to work. Without these referrals, she feared that it would be difficult for her overloaded VR&amp;E counterparts to dedicate the time and resources that are necessary to help someone with these types of disabilities return to work.    Without these types of partnerships, severely disabled veterans would likely receive minimal consideration or be designated as unemployable. Severely disabled veterans require the commitment and special attention that a VA counselor is trained to provide, but cannot afford to present with the caseloads. By referring these veterans to PVA's counselor, the veteran receives the specialized attention necessary, which more frequently leads to placement and suitable employment.    In some cases, there are fewer connections between our offices and VA's VR&amp;E program, but we are pleased that the VR&amp;E director has committed to us that he is interested in increasing collaboration.    Congressional funding for VA's VR&amp;E program must keep pace with veterans' need for services.    PVA thanks you for the opportunity to testify today and we would be pleased to answer any questions.    [The prepared statement of Ms. Ansley appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Ms. Ansley.    And, finally, Mr. Meglathery, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Meglathery</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Meglathery. Chairman Wenstrup, Ranking Member Takano, and other distinguished members of the subcommittee, thank you for giving VetsFirst the opportunity to testify regarding the effectiveness of VA's Vocational Rehabilitation and Employment Program.    VetsFirst has represented our disabled veterans, their families, and their caretakers since 1946. We advocate for the program services and disability rights that help all generations of veterans with disabilities remain independent and fulfill their desire to reintegrate into society. Today, as part of the United Spinal Association, we are not only a VA-recognized national veterans service organization, but we are a leader in advocacy for all people with disabilities.    The opportunity to participate in the workforce is critical, not only financially, but also because returning to work is a way to adjust to the normality of life in a veteran's post-military years. Without the opportunity to work, many veterans with disabilities may become disconnected from the very society for which they sacrificed their time and their health.    VetsFirst is concerned that the VR&amp;E program still lacks the resources needed to best assist all disabled veterans in returning to employment. Additionally, we are concerned about VR&amp;E's difficulty in helping veterans overcome certain disabilities that contribute to their inability to succeed in a vocational rehabilitation program. Veterans who are living with mental health conditions have poorer VR&amp;E outcomes than those with other disabilities. Veterans with more serious disabilities may also routinely require a higher level of employment support both pre- and post-placement than is typically provided by VR&amp;E.    VetsFirst would like to take this opportunity to highlight two issues of concern. Under the current requirements, to be eligible for benefits, it must be 12 years or fewer since the vet's date of separation from active military service or when VA notified them of their qualified service-connected disability, whichever date is later.    Congress should do away with the 12-year requirement. The injury, either physical or mental, will be with the veteran for their lifetime. While a mental or emotional injury may not immediately affect the vet, it may acutely manifest itself in the individual at any time in the future.    On a personal note, being a combat-wounded veteran, it is my experience that it is often difficult to come to terms with one's emotions after the trauma of war. While prior to fighting in Iraq, I had a quick temper, I think it likely my lack of patience and temper were exacerbated by the stresses of war. It took me a long time and a lot of reflection to come to that conclusion. That is why I think it necessary to reevaluate the section of vocational rehabilitation that limits the time period to 12 years of eligibility.    I am only one veteran, and I have anecdotal experience that leads me to believe that I am not alone in having had to mature a little and begin to reflect before I was able to come to terms with the effect of war. I believe the long-term effects of PTS are strong validation of why 12-year eligibility must be extended.    There have been great efforts by VA and DoD to remove the stigma for servicemembers asking for help. However, it is only recently that that stigma has started to be chipped away at. For someone that had shown signs of PTS early in the wars in Iraq and Afghanistan, it is already too late for them to use VR&amp;E under the 12-year eligibility rule. While a servicemember asking for help now may arguably not feel stigmatized, I would likely say that they would have as recently as a decade or even 5 years ago.    I would also like to discuss the caseload and the staffing. While there has been a reduction in the caseload--well, VetsFirst believes the caseloads in the current state are still too high and VA resources are not sufficient to provide timely results. Not all injuries are created equally, and those afflicted with spinal cord injuries or traumatic brain injury are likely to require more individual time and attention.    We believe that in order to more effectively manage VR&amp;E, there are several options that should be exercised. Congress must appropriate the proper funding level to support VR&amp;E and must also support efforts to hire sufficient staff. However, the answer to reducing the counselor-to-veteran ratio is not strictly a matter of increasing the budget and staff levels.    The goal of VR&amp;E is employment. Therefore, it is important that the VR&amp;E program exercise a holistic approach to getting veterans back to work. For veterans who require more support in services, VA should consider partnering with a variety of non-profit organizations that provide intensive services needed to assist veterans living with significant disabilities, including mental health conditions, and returning to and remaining in the workforce. Additionally, VR&amp;E needs to enhance its relationship with State and local government and industry writ large. Proper funding and reduction of caseload and building partnerships with other public and private sector entities is crucial for the success of both VR&amp;E and the veteran.    VA must also track veterans' employment in the long-term. VetsFirst believes that a veteran would greatly benefit if their employment were monitored for at least a year. By establishing a longer-term relationship with a counselor periodically following up, the VA will be able to track the effectiveness of the program and hold employers accountable to their commitment to support VR&amp;E.    VetsFirst would like to express its thanks for the opportunity to testify concerning its views on VA's VR&amp;E program. We appreciate your leadership on behalf of our Nation's veterans who are living with disabilities. I will be happy to answer any questions.    [The prepared statement of Mr. Meglathery appears in the Appendix]</t>
   </si>
   <si>
@@ -178,6 +202,9 @@
     <t xml:space="preserve">    Dr. Wenstrup. Thank you.    Ms. Radewagen, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Radewagen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Radewagen. Thank you, Chairman Wenstrup. I would like to thank both you and Ranking Member Takano for holding this hearing today, and I would like to welcome the panel.    My question is for Ms. Ansley and Mr. Varela. In your written statement, you mentioned that veterans rehabilitation and employment counselors' caseloads are too high and that additional staffing resources are needed to ensure eligible veterans aren't delayed in gaining services. Short of increased staff, what is something that VA can do right now to reduce the counselor-to-participant ratio, particularly in rural and outlying regions such as the United States territories in the South Pacific?</t>
   </si>
   <si>
@@ -199,6 +226,12 @@
     <t>412189</t>
   </si>
   <si>
+    <t>McNerney</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McNerney. Thank you, Mr. Chairman.    It sounds like the whole purpose really is to get veterans into work and to get them into businesses. Does the VR&amp;E program give help or assistance to service-connected disabled veterans in starting their own businesses? Whoever would care to answer.</t>
   </si>
   <si>
@@ -271,6 +304,12 @@
     <t>412647</t>
   </si>
   <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Rice. you are now recognized for 5 minutes.</t>
   </si>
   <si>
@@ -358,6 +397,12 @@
     <t>412651</t>
   </si>
   <si>
+    <t>Costello</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Costello. Thank you, Mr. Chairman.    Greetings. I had the opportunity to review the testimony in advance, and I would like to ask a question for each of you to address. I think one of the main concerns, at least one of mine, I think maybe probably for most others, is how to improve the collaboration between VR&amp;E, VHA, and other parts of the VBA to reduce overlap and improve performance?    Can you share with me where you see the greatest opportunities are for increased collaboration, and how would you improve collaboration to enhance services provided by VR&amp;E?</t>
   </si>
   <si>
@@ -520,10 +565,16 @@
     <t xml:space="preserve">    Dr. Wenstrup. I think all Members of Congress can probably remember their first 60 days in Congress and relate to the challenges of that situation.    But if there are no further questions of panel 1, I now excuse you, and I thank you all very much for being here, and I ask the second and final panel to come to the witness table.    Our second panel, we have Mr. Jack Kammerer, the director of the Vocation Rehabilitation and Employment Service at VA. We also have Mr. Ralph Charlip, deputy assistant secretary for operations and management at DOL's Veterans Employment and Training Service. Welcome to both of you.    Mr. Kammerer, you are now recognized for 5 minutes for your testimony.</t>
   </si>
   <si>
+    <t>Kammerer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kammerer. Chairman Wenstrup, Ranking Member Takano, subcommittee members, I appreciate the opportunity to appear before you today to discuss VA's VR&amp;E program and our efforts to transform. We are engaged in initiatives to extend outreach, gain a better understanding of our current and future veteran population, increase program efficiencies, enhance supporting technology and reframe performance metrics. The VR&amp;E program assists servicemembers and veterans with service-connected disabilities and barriers to employment in preparing for, finding, and maintaining suitable employment. For veterans with service-connected disabilities so severe that they cannot immediately consider employment, independent living services help to improve the ability to live as independently as possible. We employ nearly a thousand professional vocational rehabilitation counselors and deliver services through a network of almost 400 locations.    Our service delivery supports veterans where they live and includes operations at 57 regional offices, 165 out-based offices, 71 installations for IDES, and 94 VetSuccess on Campus sites. As VBA continues to make progress, major progress on the backlog, more veterans with service-connected disabilities are potentially eligible for and in need of vocational rehabilitation services. The volume of VR&amp;E applications has increased over 30 percent from 2011 to 2014 with nearly 10 percent growth in participants in each of the past 2 years.    In 2014, VR&amp;E provided entitlement determinations to applicants in an average of 43 days, which was below the national target of 45 days.    The total number of VR&amp;E cases worked by VRCs, including applicants, exceeded 181,000 in 2014 and VR&amp;E participants increased to nearly 124,000 in 2014. We successfully assisted over 10,000 veterans in achieving their rehabilitation goals in 2014 with over 8,600 of those employment rehabilitations.    Our colleagues at Department of Labor share our resolve towards these employment outcomes. With a team of 79 VSOC counselors, VR&amp;E continues to partner with 94 schools to provide services to approximately 78,000 veterans on campus. Our counselors coordinate delivery of on-campus benefits assistance, educational, vocational, or adjustment counseling, and assist veterans in completing their education and entering the labor market in viable careers.    We are committed to the VSOC program and continue to evaluate schools for potential future participation. We also closely collaborate with Department of Defense to provide VR&amp;E services to servicemembers going through IDES, have deployed nearly 200 IDES counselors on 71 installations. We are jointly visiting select IDES sites with the Army's Warrior Transition Command to improve the VR&amp;E referral process and enhance our outreach and early intervention counseling services. Since July 2014, we have visited 12 Army installations with the Army's Warrior Transition command. We also continue to work on Chapter 36 educational and career counseling services to transitioning servicemembers and veterans, updated our Chapter 36 information and incorporated it into the Transition Assistance Program curriculums with those updates.    VR&amp;E is also preparing for the initial development of our new case management system. The goals of the new system, develop a paperless service delivery model, better support veterans on their own terms, ensure consistent service delivery and quality, and modernize the employee experience.    In collaboration with VHA, VR&amp;E has also expanded the use of VHA telehealth and CAPRI technologies to enhance direct veterans service through online counseling technology and electronic medical referrals. VR&amp;E is now implementing new performance measures that will place a greater focus on veteran outcomes. Success rate is the percentage of veterans who complete their goals and/or have obtained employment (positive outcomes), and the persistence rate is the number in the class who have successfully achieved a positive outcome plus those persisting in their rehabilitation, both measured against veterans in their class. We will use a 6-year completion model that better reflects the individual needs of veterans in VR&amp;E. These new measures of veterans VR&amp;E success are driven by positive outcomes and active participation. VR&amp;E continues to refine our business processes. We have lowered cost approval thresholds for IL construction to $15,000, and we have implemented additional self-employment reviews.    At the VR&amp;E training conference last month, we discussed both improving service delivery and accountability for case management. As caseloads continue to grow, we continue to look at ways to reduce the workload burden on our counselors.    Of the two remaining open GAO recommendations, new performance measures were implemented on 1 July, and we are awaiting development of the new VR&amp;E case management system, which will help us to track the post-outcome closures. The 20-year congressionally-mandated study of VR&amp;E cohorts, 2010, 2012, and 2014, has provided us a wealth of information to date. This year we found that approximately 90 percent of participants for all cohorts reported moderate- to high-program satisfaction.    Nearly one-quarter of our veterans in each cohort have a primary rating for PTSO; 85 percent of veterans who achieved rehabilitation from an employment plan in Cohurts I and II are currently still employed, and veterans who successfully complete the VR&amp;E program report more positive economic outcomes, higher employment rates, annual earnings, and more frequent homeownership.    Mr. Chairman, we will continue to assess and improve the delivery of VR&amp;E services, and we remain focused on transforming VR&amp;E. This concludes my statement. I would be pleased to answer your questions.    [The prepared statement of Mr. Jack Kammerer appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Kammerer.    Mr. Charlip, you are now recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>Charlip</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Charlip. Good morning, Mr. Chairman, Ranking Member Takano, and distinguished members of the subcommittee. My name is Ralph Charlip, and I am the deputy assistant secretary for operations and management with the Department of Labor's Veterans Employment and Training Service.    I am also honored to be a retired Air Force medical service core officer, having served 22 years on active duty before becoming a Federal civil servant.    Thank you for the opportunity to participate in today's hearing to discuss the Department's role in providing employment services to our Nation's veterans and servicemembers in coordination with the VA's vocational rehabilitation and employment program. The Department takes our role in providing employment services to veterans and transitioning servicemembers, including those in the VA's VR&amp;E program, very seriously. DOL-funded support for veterans with significant barriers to employment is delivered primarily by disabled veteran outreach program specialists DVOPS in American job centers across the country. DVOP positions are funded through the jobs for veteran State grant (JVSG) program administered by DOL VETS. JVSG-funded positions are aligned with other employment services provided at American job centers.    DOL's employment services for disabled veterans complement the services provided by VR&amp;E counselors. This requires close coordination between VR&amp;E and VETS and is managed under a memorandum of agreement (MOA) between DOL and VA. The most recent MOA is dated February 27, 2015. The MOA describes the goals of our coordination, the roles and responsibilities of each party, and establishes a working group comprised of staff members from both departments to manage the collaboration. We see ourselves as a vital member of a multiparty team--DOL, through Federal, State, and local staff, VA's VR&amp;E counselors, and the disabled veterans who benefit from our services.    VA's VR&amp;E is a comprehensive rehabilitation program that assists servicemembers and veterans with service-connected disabilities and barriers to employment in preparing for finding and maintaining suitable employment. DVOP specialists, on the other hand, provide intensive services to a wider variety of veterans who have significant barriers to employment. These barriers may include a service-connected disability, homelessness, low income, lack of a high school diploma or equivalent, or similar challenges. While VA is not required to refer VR&amp;E participants to DOL for assistance, the new MOA strongly encourages such referrals.    In practice, a veteran who is enrolled in the VR&amp;E program and is referred to DOL interacts with the DVOP at two distinct points. The first point is during or following enrollment in the VR&amp;E program when our DVOP specialist provides labor and marketing information, guidance to applicants, new enrollees, and their counselors. This includes information about the types of jobs that are available in the geographic area where the veteran desires to work, and assessment of the veterans' skills and the kinds of training and education that would be required to enter a particular industry.    The second point occurs when the veteran nears completion of the VR&amp;E program and is beginning to look for work. When the veteran is referred to DOL for employment services, a DVOP specialist works with the individual to prepare them for jobs which match their abilities, education, and training, and are in the career field and geographic area identified within VR&amp;E's individual written rehabilitation plan.    The story of Lori Mobbs provides one example of how this interagency coordination works. An Army veteran with more than 15 years of military service, she utilized the VR&amp;E program to complete her degree in geography in December 2014. Through effective collaboration between the Department of Veterans' Affairs and the Alabama Departments of Labor and Veterans' Affairs, she met with the DVOP specialist. Who provided Federal job search assistance during her initial visit an AJC in Huntsville, Alabama. Because she was eligible for intensive services and because of her strong desire to obtain employment with the National Park Service, the DVOP specialist assisted her in applying for several jobs with the National Park Service. I am very pleased to report that she accepted a position at Olympic National Park in Washington State in April 2015 and reported to work last month.    DOL and VA coordinate to give veterans seamless services to achieve their employment goals. We are proud of the DOL programs that deliver positive employment outcomes for our disabled veterans and look forward to continuing to work with our VA partners and this subcommittee. Chairman Wenstrup, Ranking Member Takano, distinguished members of the subcommittee, thank you for the opportunity to take an active part in the hearing. I welcome any questions you might have.    [The prepared statement of Mr. Ralph Charlip appears in the Appendix]</t>
@@ -1001,7 +1052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,7 +1060,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,4757 +1082,5568 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G50" t="s">
+        <v>70</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G52" t="s">
+        <v>70</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G54" t="s">
+        <v>70</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>60</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G56" t="s">
+        <v>70</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G58" t="s">
+        <v>70</v>
+      </c>
       <c r="H58" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G61" t="s">
+        <v>70</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>25</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G63" t="s">
+        <v>70</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>60</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G67" t="s">
+        <v>70</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G69" t="s">
+        <v>70</v>
+      </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G71" t="s">
+        <v>96</v>
+      </c>
       <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G72" t="s">
+        <v>96</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>22</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>84</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G74" t="s">
+        <v>96</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G75" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G76" t="s">
+        <v>96</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G78" t="s">
+        <v>96</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G80" t="s">
+        <v>96</v>
+      </c>
       <c r="H80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>84</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G82" t="s">
+        <v>96</v>
+      </c>
       <c r="H82" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>84</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G84" t="s">
+        <v>96</v>
+      </c>
       <c r="H84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>84</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G86" t="s">
+        <v>96</v>
+      </c>
       <c r="H86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>84</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G88" t="s">
+        <v>96</v>
+      </c>
       <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>22</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>84</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G90" t="s">
+        <v>96</v>
+      </c>
       <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>84</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G92" t="s">
+        <v>96</v>
+      </c>
       <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>84</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G94" t="s">
+        <v>96</v>
+      </c>
       <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>25</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>84</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G96" t="s">
+        <v>96</v>
+      </c>
       <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>25</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>84</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G98" t="s">
+        <v>96</v>
+      </c>
       <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>113</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G100" t="s">
+        <v>127</v>
+      </c>
       <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>25</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>28</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>113</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G104" t="s">
+        <v>127</v>
+      </c>
       <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>113</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G106" t="s">
+        <v>127</v>
+      </c>
       <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>113</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G108" t="s">
+        <v>127</v>
+      </c>
       <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>25</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>16</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G112" t="s">
+        <v>25</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G114" t="s">
+        <v>25</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G116" t="s">
+        <v>25</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>17</v>
+      </c>
       <c r="H118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>28</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>17</v>
+      </c>
       <c r="H120" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I120" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>22</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
       <c r="H122" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I122" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>17</v>
+      </c>
       <c r="H124" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I124" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>17</v>
+      </c>
       <c r="H126" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
       <c r="H128" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I128" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>60</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G130" t="s">
+        <v>70</v>
+      </c>
       <c r="H130" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I130" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G131" t="s">
+        <v>28</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>60</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G132" t="s">
+        <v>70</v>
+      </c>
       <c r="H132" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G133" t="s">
+        <v>22</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>60</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G134" t="s">
+        <v>70</v>
+      </c>
       <c r="H134" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>60</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G136" t="s">
+        <v>70</v>
+      </c>
       <c r="H136" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>22</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>60</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G138" t="s">
+        <v>70</v>
+      </c>
       <c r="H138" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I138" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>28</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>60</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G140" t="s">
+        <v>70</v>
+      </c>
       <c r="H140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I140" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G141" t="s">
+        <v>28</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>60</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G142" t="s">
+        <v>70</v>
+      </c>
       <c r="H142" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I142" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
       <c r="H143" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>84</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G144" t="s">
+        <v>96</v>
+      </c>
       <c r="H144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I144" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>84</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G146" t="s">
+        <v>96</v>
+      </c>
       <c r="H146" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I146" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G147" t="s">
+        <v>22</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>84</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G148" t="s">
+        <v>96</v>
+      </c>
       <c r="H148" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I148" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>25</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>84</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G150" t="s">
+        <v>96</v>
+      </c>
       <c r="H150" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I150" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G151" t="s">
+        <v>25</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>84</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G152" t="s">
+        <v>96</v>
+      </c>
       <c r="H152" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I152" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
       <c r="H153" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G154" t="s">
+        <v>183</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
       <c r="H155" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G156" t="s">
+        <v>186</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
       <c r="H157" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G158" t="s">
+        <v>183</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>11</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
       <c r="H159" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>183</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
+      </c>
       <c r="H161" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>183</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>11</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
       <c r="H163" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>183</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>11</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>13</v>
+      </c>
       <c r="H165" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>183</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>11</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>13</v>
+      </c>
       <c r="H167" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>183</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
       <c r="H169" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G170" t="s">
+        <v>17</v>
+      </c>
       <c r="H170" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I170" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G171" t="s">
+        <v>183</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G172" t="s">
+        <v>17</v>
+      </c>
       <c r="H172" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I172" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G173" t="s">
+        <v>183</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>13</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G174" t="s">
+        <v>17</v>
+      </c>
       <c r="H174" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I174" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G175" t="s">
+        <v>183</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G176" t="s">
+        <v>17</v>
+      </c>
       <c r="H176" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I176" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G177" t="s">
+        <v>183</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>13</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G178" t="s">
+        <v>17</v>
+      </c>
       <c r="H178" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I178" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>11</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
       <c r="H179" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>113</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G180" t="s">
+        <v>127</v>
+      </c>
       <c r="H180" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I180" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G181" t="s">
+        <v>186</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>113</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G182" t="s">
+        <v>127</v>
+      </c>
       <c r="H182" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I182" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>183</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>113</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G184" t="s">
+        <v>127</v>
+      </c>
       <c r="H184" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I184" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>186</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>113</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G186" t="s">
+        <v>127</v>
+      </c>
       <c r="H186" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I186" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>16</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G187" t="s">
+        <v>186</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>113</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G188" t="s">
+        <v>127</v>
+      </c>
       <c r="H188" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I188" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G189" t="s">
+        <v>13</v>
+      </c>
       <c r="H189" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I189" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>84</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G190" t="s">
+        <v>96</v>
+      </c>
       <c r="H190" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I190" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G191" t="s">
+        <v>183</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>84</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G192" t="s">
+        <v>96</v>
+      </c>
       <c r="H192" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I192" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G193" t="s">
+        <v>183</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>84</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G194" t="s">
+        <v>96</v>
+      </c>
       <c r="H194" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I194" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>16</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G195" t="s">
+        <v>183</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>84</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G196" t="s">
+        <v>96</v>
+      </c>
       <c r="H196" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I196" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>16</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G197" t="s">
+        <v>183</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>84</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G198" t="s">
+        <v>96</v>
+      </c>
       <c r="H198" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I198" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
       <c r="H199" t="s">
-        <v>212</v>
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98685.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98685.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="234">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Wenstrup</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412520</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Takano</t>
   </si>
   <si>
@@ -224,6 +233,9 @@
   </si>
   <si>
     <t>412189</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>McNerney</t>
@@ -1052,7 +1064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1060,7 +1072,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,5565 +1097,5980 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
         <v>21</v>
       </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>25</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G50" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G52" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G54" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G56" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G58" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H58" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G61" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H61" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>25</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G65" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H65" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G67" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H67" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>25</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G69" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G71" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G72" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>22</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G74" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I74" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G76" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G78" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G80" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>25</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G82" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H82" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>25</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G84" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H84" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>25</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G86" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H86" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G88" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H88" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I88" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G90" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H90" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I90" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>22</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G92" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H92" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I92" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>25</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G94" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H94" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>25</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G96" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H96" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>25</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G98" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H98" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I98" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G100" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="H100" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>25</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>25</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>28</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>31</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G104" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>22</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G106" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I106" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>22</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>25</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G108" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I108" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J108" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>25</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>28</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>25</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>28</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>25</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>28</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>25</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>28</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G118" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H118" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I118" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>28</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>31</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G120" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H120" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I120" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J120" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>22</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>25</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G122" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I122" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>22</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>25</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G124" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H124" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I124" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s">
-        <v>22</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>25</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G126" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H126" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I126" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s">
-        <v>22</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>25</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G128" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H128" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I128" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G130" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H130" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I130" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s">
-        <v>28</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>31</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G132" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H132" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I132" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>22</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>25</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G134" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H134" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I134" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>22</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>25</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G136" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H136" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I136" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>22</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>25</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G138" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H138" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I138" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>28</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>31</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G140" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H140" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I140" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J140" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>28</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>31</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G142" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H142" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I142" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>75</v>
+      </c>
+      <c r="J142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I143" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G144" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H144" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I144" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s">
-        <v>22</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>25</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G146" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H146" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I146" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J146" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>22</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>25</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G148" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H148" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I148" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J148" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
-        <v>25</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>28</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G150" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H150" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I150" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
-      </c>
-      <c r="G151" t="s">
-        <v>25</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>28</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G152" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H152" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I152" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J152" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I153" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J153" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
-      </c>
-      <c r="G154" t="s">
-        <v>183</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>187</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I155" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>21</v>
-      </c>
-      <c r="G156" t="s">
-        <v>186</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>190</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" t="s">
-        <v>183</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>187</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I159" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>21</v>
-      </c>
-      <c r="G160" t="s">
-        <v>183</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>187</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I161" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
-      </c>
-      <c r="G162" t="s">
-        <v>183</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>187</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I163" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s">
-        <v>183</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>187</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G165" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I165" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>21</v>
-      </c>
-      <c r="G166" t="s">
-        <v>183</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>187</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I167" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J167" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>21</v>
-      </c>
-      <c r="G168" t="s">
-        <v>183</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>187</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I169" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J169" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G170" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H170" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I170" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J170" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s">
-        <v>183</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>187</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G172" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H172" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I172" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J172" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s">
-        <v>183</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>187</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G174" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H174" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I174" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J174" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s">
-        <v>183</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>187</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G176" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H176" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I176" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J176" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s">
-        <v>183</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>187</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G178" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H178" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I178" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J178" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I179" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J179" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G180" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="H180" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I180" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J180" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s">
-        <v>186</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>190</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G182" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="H182" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I182" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J182" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
-      </c>
-      <c r="G183" t="s">
-        <v>183</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>187</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G184" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="H184" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I184" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J184" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" t="s">
-        <v>186</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>190</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G186" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="H186" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I186" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J186" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>21</v>
-      </c>
-      <c r="G187" t="s">
-        <v>186</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>190</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G188" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="H188" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I188" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>132</v>
+      </c>
+      <c r="J188" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H189" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I189" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J189" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G190" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H190" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I190" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J190" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
-      </c>
-      <c r="G191" t="s">
-        <v>183</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>187</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G192" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H192" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I192" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J192" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>21</v>
-      </c>
-      <c r="G193" t="s">
-        <v>183</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>187</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G194" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H194" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I194" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J194" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
-      </c>
-      <c r="G195" t="s">
-        <v>183</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>187</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G196" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H196" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I196" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J196" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>21</v>
-      </c>
-      <c r="G197" t="s">
-        <v>183</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>187</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G198" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="H198" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I198" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J198" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I199" t="s">
-        <v>229</v>
+        <v>16</v>
+      </c>
+      <c r="J199" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
